--- a/utility/app1/gem_colors_325.xlsx
+++ b/utility/app1/gem_colors_325.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz\PycharmProjects\PathOfExile-SkillGemMargins\utility\app1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c63bb72ccca30f88/Documents/Workspace/PathOfExile-SkillGemMargins/utility/app1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E41C8AD-B487-4FA9-9004-983D43918C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{9E41C8AD-B487-4FA9-9004-983D43918C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{386B3F1F-FE13-4784-BF9A-C28ACBFD4585}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2475" yWindow="1965" windowWidth="33570" windowHeight="17910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gem_names" sheetId="6" r:id="rId1"/>
@@ -2341,7 +2341,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2356,18 +2356,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2387,14 +2390,6 @@
       </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2409,7 +2404,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{84E95900-09A7-4D68-A011-BC31C58B4875}" name="Tabelle1" displayName="Tabelle1" ref="A1:E730" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{84E95900-09A7-4D68-A011-BC31C58B4875}" name="Tabelle1" displayName="Tabelle1" ref="A1:E730" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:E730" xr:uid="{84E95900-09A7-4D68-A011-BC31C58B4875}">
     <filterColumn colId="1">
       <filters>
@@ -2422,7 +2417,7 @@
     <sortCondition ref="A2:A730"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6BB5F66F-6979-4D73-8F24-CDFDC990A186}" name="name" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{6BB5F66F-6979-4D73-8F24-CDFDC990A186}" name="name" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{8E59A198-E143-495D-86C6-0AF34A0BBFB5}" name="color"/>
     <tableColumn id="3" xr3:uid="{68D5ECA4-4FDE-4996-9475-88D07F66E4A5}" name="type"/>
     <tableColumn id="4" xr3:uid="{13624881-A0A7-420F-866C-FEF6B6B303CE}" name="base_gem"/>
@@ -2701,17 +2696,17 @@
       <selection activeCell="G550" sqref="G550"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>710</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2728,7 +2723,7 @@
       </c>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>640</v>
       </c>
@@ -2742,7 +2737,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>641</v>
       </c>
@@ -2757,7 +2752,7 @@
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -2771,7 +2766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>343</v>
       </c>
@@ -2789,7 +2784,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>344</v>
       </c>
@@ -2806,7 +2801,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2820,7 +2815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>642</v>
       </c>
@@ -2834,7 +2829,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -2848,7 +2843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>643</v>
       </c>
@@ -2862,7 +2857,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -2876,7 +2871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>345</v>
       </c>
@@ -2893,7 +2888,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>346</v>
       </c>
@@ -2911,7 +2906,7 @@
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -2925,7 +2920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>725</v>
       </c>
@@ -2939,7 +2934,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>283</v>
       </c>
@@ -2953,7 +2948,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>284</v>
       </c>
@@ -2967,7 +2962,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>644</v>
       </c>
@@ -2981,7 +2976,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>645</v>
       </c>
@@ -2995,7 +2990,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>285</v>
       </c>
@@ -3009,7 +3004,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>286</v>
       </c>
@@ -3023,7 +3018,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>646</v>
       </c>
@@ -3037,7 +3032,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>647</v>
       </c>
@@ -3051,7 +3046,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>648</v>
       </c>
@@ -3065,7 +3060,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>287</v>
       </c>
@@ -3079,7 +3074,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>288</v>
       </c>
@@ -3093,7 +3088,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>649</v>
       </c>
@@ -3107,7 +3102,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>650</v>
       </c>
@@ -3121,7 +3116,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>289</v>
       </c>
@@ -3135,7 +3130,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>651</v>
       </c>
@@ -3149,7 +3144,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>15</v>
       </c>
@@ -3163,7 +3158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>347</v>
       </c>
@@ -3180,7 +3175,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>348</v>
       </c>
@@ -3197,7 +3192,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
@@ -3211,7 +3206,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>349</v>
       </c>
@@ -3225,7 +3220,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>652</v>
       </c>
@@ -3239,7 +3234,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>653</v>
       </c>
@@ -3253,7 +3248,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
@@ -3267,7 +3262,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>29</v>
       </c>
@@ -3281,7 +3276,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>350</v>
       </c>
@@ -3298,7 +3293,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>351</v>
       </c>
@@ -3315,7 +3310,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
@@ -3329,7 +3324,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>352</v>
       </c>
@@ -3346,7 +3341,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
@@ -3360,7 +3355,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>654</v>
       </c>
@@ -3374,7 +3369,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>36</v>
       </c>
@@ -3388,7 +3383,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>655</v>
       </c>
@@ -3402,7 +3397,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>656</v>
       </c>
@@ -3416,7 +3411,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>657</v>
       </c>
@@ -3430,7 +3425,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>41</v>
       </c>
@@ -3444,7 +3439,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3458,7 +3453,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>353</v>
       </c>
@@ -3475,7 +3470,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>658</v>
       </c>
@@ -3489,7 +3484,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>659</v>
       </c>
@@ -3503,7 +3498,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>45</v>
       </c>
@@ -3517,7 +3512,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>47</v>
       </c>
@@ -3531,7 +3526,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>354</v>
       </c>
@@ -3548,7 +3543,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>355</v>
       </c>
@@ -3565,7 +3560,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>660</v>
       </c>
@@ -3579,7 +3574,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>48</v>
       </c>
@@ -3593,7 +3588,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>49</v>
       </c>
@@ -3607,7 +3602,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>51</v>
       </c>
@@ -3621,7 +3616,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>356</v>
       </c>
@@ -3638,7 +3633,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>357</v>
       </c>
@@ -3655,7 +3650,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>52</v>
       </c>
@@ -3669,7 +3664,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>661</v>
       </c>
@@ -3683,7 +3678,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>55</v>
       </c>
@@ -3697,7 +3692,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>662</v>
       </c>
@@ -3711,7 +3706,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3725,7 +3720,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3739,7 +3734,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>663</v>
       </c>
@@ -3753,7 +3748,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>66</v>
       </c>
@@ -3767,7 +3762,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>358</v>
       </c>
@@ -3781,7 +3776,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>67</v>
       </c>
@@ -3795,7 +3790,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>68</v>
       </c>
@@ -3809,7 +3804,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>359</v>
       </c>
@@ -3826,7 +3821,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>360</v>
       </c>
@@ -3843,7 +3838,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>731</v>
       </c>
@@ -3858,7 +3853,7 @@
       </c>
       <c r="E78" s="9"/>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>664</v>
       </c>
@@ -3872,7 +3867,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>665</v>
       </c>
@@ -3886,7 +3881,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>666</v>
       </c>
@@ -3900,7 +3895,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>667</v>
       </c>
@@ -3914,7 +3909,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>668</v>
       </c>
@@ -3928,7 +3923,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>76</v>
       </c>
@@ -3942,7 +3937,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>78</v>
       </c>
@@ -3956,7 +3951,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>669</v>
       </c>
@@ -3970,7 +3965,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>79</v>
       </c>
@@ -3984,7 +3979,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>670</v>
       </c>
@@ -3998,7 +3993,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>81</v>
       </c>
@@ -4012,7 +4007,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>361</v>
       </c>
@@ -4029,7 +4024,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>362</v>
       </c>
@@ -4046,7 +4041,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>87</v>
       </c>
@@ -4060,7 +4055,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>363</v>
       </c>
@@ -4077,7 +4072,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>364</v>
       </c>
@@ -4094,7 +4089,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>671</v>
       </c>
@@ -4108,7 +4103,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>672</v>
       </c>
@@ -4122,7 +4117,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>89</v>
       </c>
@@ -4136,7 +4131,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>90</v>
       </c>
@@ -4150,7 +4145,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>365</v>
       </c>
@@ -4167,7 +4162,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>366</v>
       </c>
@@ -4184,7 +4179,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>91</v>
       </c>
@@ -4198,7 +4193,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>367</v>
       </c>
@@ -4215,7 +4210,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>93</v>
       </c>
@@ -4229,7 +4224,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>368</v>
       </c>
@@ -4246,7 +4241,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>94</v>
       </c>
@@ -4260,7 +4255,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>95</v>
       </c>
@@ -4274,7 +4269,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>369</v>
       </c>
@@ -4291,7 +4286,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>370</v>
       </c>
@@ -4308,7 +4303,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>97</v>
       </c>
@@ -4322,7 +4317,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>98</v>
       </c>
@@ -4336,7 +4331,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>101</v>
       </c>
@@ -4350,7 +4345,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>371</v>
       </c>
@@ -4367,7 +4362,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>102</v>
       </c>
@@ -4381,7 +4376,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>673</v>
       </c>
@@ -4395,7 +4390,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>674</v>
       </c>
@@ -4409,7 +4404,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>105</v>
       </c>
@@ -4423,7 +4418,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>372</v>
       </c>
@@ -4440,7 +4435,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>373</v>
       </c>
@@ -4457,7 +4452,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>106</v>
       </c>
@@ -4471,7 +4466,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>107</v>
       </c>
@@ -4485,7 +4480,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>108</v>
       </c>
@@ -4499,7 +4494,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>109</v>
       </c>
@@ -4513,7 +4508,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>374</v>
       </c>
@@ -4530,7 +4525,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>110</v>
       </c>
@@ -4544,7 +4539,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>292</v>
       </c>
@@ -4558,7 +4553,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>375</v>
       </c>
@@ -4575,7 +4570,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>113</v>
       </c>
@@ -4589,7 +4584,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>376</v>
       </c>
@@ -4606,7 +4601,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>124</v>
       </c>
@@ -4620,7 +4615,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>675</v>
       </c>
@@ -4634,7 +4629,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>125</v>
       </c>
@@ -4648,7 +4643,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>377</v>
       </c>
@@ -4662,7 +4657,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>378</v>
       </c>
@@ -4679,7 +4674,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>676</v>
       </c>
@@ -4693,7 +4688,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>677</v>
       </c>
@@ -4707,7 +4702,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>127</v>
       </c>
@@ -4721,7 +4716,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>129</v>
       </c>
@@ -4735,7 +4730,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>379</v>
       </c>
@@ -4752,7 +4747,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>380</v>
       </c>
@@ -4769,7 +4764,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>131</v>
       </c>
@@ -4783,7 +4778,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>381</v>
       </c>
@@ -4800,7 +4795,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>133</v>
       </c>
@@ -4814,7 +4809,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>382</v>
       </c>
@@ -4831,7 +4826,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>383</v>
       </c>
@@ -4848,7 +4843,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>678</v>
       </c>
@@ -4862,7 +4857,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>679</v>
       </c>
@@ -4876,7 +4871,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>680</v>
       </c>
@@ -4890,7 +4885,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>135</v>
       </c>
@@ -4904,7 +4899,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>726</v>
       </c>
@@ -4921,7 +4916,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>727</v>
       </c>
@@ -4938,7 +4933,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>681</v>
       </c>
@@ -4952,7 +4947,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>682</v>
       </c>
@@ -4966,7 +4961,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>683</v>
       </c>
@@ -4980,7 +4975,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>684</v>
       </c>
@@ -4994,7 +4989,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>685</v>
       </c>
@@ -5008,7 +5003,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>686</v>
       </c>
@@ -5022,7 +5017,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>687</v>
       </c>
@@ -5036,7 +5031,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>688</v>
       </c>
@@ -5050,7 +5045,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>140</v>
       </c>
@@ -5064,7 +5059,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>728</v>
       </c>
@@ -5081,7 +5076,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>141</v>
       </c>
@@ -5095,7 +5090,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>384</v>
       </c>
@@ -5112,7 +5107,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>293</v>
       </c>
@@ -5126,7 +5121,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>385</v>
       </c>
@@ -5143,7 +5138,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>689</v>
       </c>
@@ -5157,7 +5152,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>146</v>
       </c>
@@ -5171,7 +5166,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>386</v>
       </c>
@@ -5188,7 +5183,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
         <v>387</v>
       </c>
@@ -5205,7 +5200,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>148</v>
       </c>
@@ -5219,7 +5214,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>388</v>
       </c>
@@ -5236,7 +5231,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>389</v>
       </c>
@@ -5253,7 +5248,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>149</v>
       </c>
@@ -5267,7 +5262,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>390</v>
       </c>
@@ -5284,7 +5279,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>150</v>
       </c>
@@ -5298,7 +5293,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>151</v>
       </c>
@@ -5312,7 +5307,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>152</v>
       </c>
@@ -5326,7 +5321,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>690</v>
       </c>
@@ -5340,7 +5335,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>691</v>
       </c>
@@ -5354,7 +5349,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>692</v>
       </c>
@@ -5368,7 +5363,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>693</v>
       </c>
@@ -5382,7 +5377,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>694</v>
       </c>
@@ -5396,7 +5391,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>156</v>
       </c>
@@ -5410,7 +5405,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>695</v>
       </c>
@@ -5424,7 +5419,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>157</v>
       </c>
@@ -5438,7 +5433,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
         <v>391</v>
       </c>
@@ -5455,7 +5450,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
         <v>392</v>
       </c>
@@ -5472,7 +5467,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>696</v>
       </c>
@@ -5486,7 +5481,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>697</v>
       </c>
@@ -5500,7 +5495,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>698</v>
       </c>
@@ -5514,7 +5509,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>166</v>
       </c>
@@ -5528,7 +5523,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>393</v>
       </c>
@@ -5545,7 +5540,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>699</v>
       </c>
@@ -5559,7 +5554,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>700</v>
       </c>
@@ -5573,7 +5568,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>172</v>
       </c>
@@ -5587,7 +5582,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>394</v>
       </c>
@@ -5604,7 +5599,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>173</v>
       </c>
@@ -5618,7 +5613,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>176</v>
       </c>
@@ -5632,7 +5627,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>177</v>
       </c>
@@ -5646,7 +5641,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>395</v>
       </c>
@@ -5663,7 +5658,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>180</v>
       </c>
@@ -5677,7 +5672,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>396</v>
       </c>
@@ -5694,7 +5689,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>181</v>
       </c>
@@ -5708,7 +5703,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>397</v>
       </c>
@@ -5725,7 +5720,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>398</v>
       </c>
@@ -5742,7 +5737,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>187</v>
       </c>
@@ -5756,7 +5751,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
         <v>399</v>
       </c>
@@ -5773,7 +5768,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>189</v>
       </c>
@@ -5787,7 +5782,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>730</v>
       </c>
@@ -5801,7 +5796,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>701</v>
       </c>
@@ -5815,7 +5810,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>190</v>
       </c>
@@ -5829,7 +5824,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>400</v>
       </c>
@@ -5846,7 +5841,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>198</v>
       </c>
@@ -5860,7 +5855,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>202</v>
       </c>
@@ -5874,7 +5869,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>203</v>
       </c>
@@ -5888,7 +5883,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>207</v>
       </c>
@@ -5902,7 +5897,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>208</v>
       </c>
@@ -5916,7 +5911,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
         <v>401</v>
       </c>
@@ -5933,7 +5928,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>402</v>
       </c>
@@ -5950,7 +5945,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>209</v>
       </c>
@@ -5964,7 +5959,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>403</v>
       </c>
@@ -5981,7 +5976,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
         <v>404</v>
       </c>
@@ -5998,7 +5993,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>702</v>
       </c>
@@ -6012,7 +6007,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>703</v>
       </c>
@@ -6026,7 +6021,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>704</v>
       </c>
@@ -6040,7 +6035,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>213</v>
       </c>
@@ -6054,7 +6049,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>214</v>
       </c>
@@ -6068,7 +6063,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>219</v>
       </c>
@@ -6082,7 +6077,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
         <v>405</v>
       </c>
@@ -6099,7 +6094,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>220</v>
       </c>
@@ -6113,7 +6108,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>221</v>
       </c>
@@ -6127,7 +6122,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>223</v>
       </c>
@@ -6141,7 +6136,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
         <v>406</v>
       </c>
@@ -6158,7 +6153,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>224</v>
       </c>
@@ -6172,7 +6167,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>225</v>
       </c>
@@ -6186,7 +6181,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
         <v>407</v>
       </c>
@@ -6203,7 +6198,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>408</v>
       </c>
@@ -6220,7 +6215,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>226</v>
       </c>
@@ -6234,7 +6229,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
         <v>409</v>
       </c>
@@ -6251,7 +6246,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
         <v>410</v>
       </c>
@@ -6268,7 +6263,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>228</v>
       </c>
@@ -6282,7 +6277,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>729</v>
       </c>
@@ -6299,7 +6294,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="8" t="s">
         <v>230</v>
       </c>
@@ -6313,7 +6308,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
         <v>411</v>
       </c>
@@ -6330,7 +6325,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>705</v>
       </c>
@@ -6344,7 +6339,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>231</v>
       </c>
@@ -6358,7 +6353,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>412</v>
       </c>
@@ -6375,7 +6370,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>232</v>
       </c>
@@ -6389,7 +6384,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
         <v>413</v>
       </c>
@@ -6406,7 +6401,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
         <v>414</v>
       </c>
@@ -6423,7 +6418,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>233</v>
       </c>
@@ -6437,7 +6432,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
         <v>415</v>
       </c>
@@ -6454,7 +6449,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
         <v>416</v>
       </c>
@@ -6471,7 +6466,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>234</v>
       </c>
@@ -6485,7 +6480,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>706</v>
       </c>
@@ -6499,7 +6494,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>239</v>
       </c>
@@ -6513,7 +6508,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>707</v>
       </c>
@@ -6527,7 +6522,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>708</v>
       </c>
@@ -6541,7 +6536,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>709</v>
       </c>
@@ -6555,7 +6550,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>417</v>
       </c>
@@ -6569,7 +6564,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>418</v>
       </c>
@@ -6583,7 +6578,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>419</v>
       </c>
@@ -6597,7 +6592,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>420</v>
       </c>
@@ -6611,7 +6606,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>421</v>
       </c>
@@ -6625,7 +6620,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>422</v>
       </c>
@@ -6639,7 +6634,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>423</v>
       </c>
@@ -6653,7 +6648,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>424</v>
       </c>
@@ -6667,7 +6662,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>425</v>
       </c>
@@ -6681,7 +6676,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>426</v>
       </c>
@@ -6695,7 +6690,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>427</v>
       </c>
@@ -6709,7 +6704,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>428</v>
       </c>
@@ -6723,7 +6718,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>429</v>
       </c>
@@ -6737,7 +6732,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>430</v>
       </c>
@@ -6751,7 +6746,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>431</v>
       </c>
@@ -6765,7 +6760,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>432</v>
       </c>
@@ -6779,7 +6774,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>252</v>
       </c>
@@ -6793,7 +6788,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
         <v>433</v>
       </c>
@@ -6810,7 +6805,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>254</v>
       </c>
@@ -6824,7 +6819,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>255</v>
       </c>
@@ -6838,7 +6833,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>434</v>
       </c>
@@ -6852,7 +6847,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>259</v>
       </c>
@@ -6866,7 +6861,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>262</v>
       </c>
@@ -6880,7 +6875,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>263</v>
       </c>
@@ -6894,7 +6889,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>264</v>
       </c>
@@ -6908,7 +6903,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>266</v>
       </c>
@@ -6922,7 +6917,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>267</v>
       </c>
@@ -6936,7 +6931,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>581</v>
       </c>
@@ -6950,7 +6945,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>582</v>
       </c>
@@ -6964,7 +6959,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>583</v>
       </c>
@@ -6978,7 +6973,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>291</v>
       </c>
@@ -6992,7 +6987,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>1</v>
       </c>
@@ -7006,7 +7001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>7</v>
       </c>
@@ -7020,7 +7015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
         <v>435</v>
       </c>
@@ -7037,7 +7032,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
         <v>436</v>
       </c>
@@ -7054,7 +7049,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>11</v>
       </c>
@@ -7068,7 +7063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>584</v>
       </c>
@@ -7082,7 +7077,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>13</v>
       </c>
@@ -7096,7 +7091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
         <v>719</v>
       </c>
@@ -7113,7 +7108,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
         <v>720</v>
       </c>
@@ -7130,7 +7125,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>271</v>
       </c>
@@ -7144,7 +7139,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>585</v>
       </c>
@@ -7158,7 +7153,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>586</v>
       </c>
@@ -7172,7 +7167,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>587</v>
       </c>
@@ -7186,7 +7181,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>272</v>
       </c>
@@ -7200,7 +7195,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>273</v>
       </c>
@@ -7214,7 +7209,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>588</v>
       </c>
@@ -7228,7 +7223,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>589</v>
       </c>
@@ -7242,7 +7237,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>590</v>
       </c>
@@ -7256,7 +7251,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>274</v>
       </c>
@@ -7270,7 +7265,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>275</v>
       </c>
@@ -7284,7 +7279,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>276</v>
       </c>
@@ -7298,7 +7293,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>17</v>
       </c>
@@ -7312,7 +7307,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
         <v>437</v>
       </c>
@@ -7329,7 +7324,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>591</v>
       </c>
@@ -7343,7 +7338,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>19</v>
       </c>
@@ -7357,7 +7352,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
         <v>438</v>
       </c>
@@ -7374,7 +7369,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>21</v>
       </c>
@@ -7388,7 +7383,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
         <v>439</v>
       </c>
@@ -7405,7 +7400,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
         <v>440</v>
       </c>
@@ -7422,7 +7417,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>22</v>
       </c>
@@ -7436,7 +7431,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
         <v>441</v>
       </c>
@@ -7453,7 +7448,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>23</v>
       </c>
@@ -7467,7 +7462,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
         <v>442</v>
       </c>
@@ -7484,7 +7479,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
         <v>443</v>
       </c>
@@ -7501,7 +7496,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>24</v>
       </c>
@@ -7515,7 +7510,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
         <v>444</v>
       </c>
@@ -7532,7 +7527,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>25</v>
       </c>
@@ -7546,7 +7541,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
         <v>445</v>
       </c>
@@ -7563,7 +7558,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
         <v>446</v>
       </c>
@@ -7580,7 +7575,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>27</v>
       </c>
@@ -7594,7 +7589,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>592</v>
       </c>
@@ -7608,7 +7603,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>30</v>
       </c>
@@ -7622,7 +7617,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
         <v>447</v>
       </c>
@@ -7639,7 +7634,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
         <v>448</v>
       </c>
@@ -7656,7 +7651,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>593</v>
       </c>
@@ -7670,7 +7665,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>31</v>
       </c>
@@ -7684,7 +7679,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>37</v>
       </c>
@@ -7698,7 +7693,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="4" t="s">
         <v>449</v>
       </c>
@@ -7715,7 +7710,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>594</v>
       </c>
@@ -7729,7 +7724,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>595</v>
       </c>
@@ -7743,7 +7738,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>38</v>
       </c>
@@ -7757,7 +7752,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="4" t="s">
         <v>450</v>
       </c>
@@ -7774,7 +7769,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>596</v>
       </c>
@@ -7788,7 +7783,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>597</v>
       </c>
@@ -7802,7 +7797,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>598</v>
       </c>
@@ -7816,7 +7811,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>40</v>
       </c>
@@ -7830,7 +7825,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>599</v>
       </c>
@@ -7844,7 +7839,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>600</v>
       </c>
@@ -7858,7 +7853,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>601</v>
       </c>
@@ -7872,7 +7867,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>43</v>
       </c>
@@ -7886,7 +7881,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>602</v>
       </c>
@@ -7900,7 +7895,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>53</v>
       </c>
@@ -7914,7 +7909,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="4" t="s">
         <v>451</v>
       </c>
@@ -7928,7 +7923,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="4" t="s">
         <v>452</v>
       </c>
@@ -7942,7 +7937,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>603</v>
       </c>
@@ -7956,7 +7951,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>604</v>
       </c>
@@ -7970,7 +7965,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>54</v>
       </c>
@@ -7984,7 +7979,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="4" t="s">
         <v>453</v>
       </c>
@@ -8001,7 +7996,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>56</v>
       </c>
@@ -8015,7 +8010,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>605</v>
       </c>
@@ -8029,7 +8024,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>59</v>
       </c>
@@ -8043,7 +8038,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>63</v>
       </c>
@@ -8057,7 +8052,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="4" t="s">
         <v>454</v>
       </c>
@@ -8074,7 +8069,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="4" t="s">
         <v>455</v>
       </c>
@@ -8091,7 +8086,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>70</v>
       </c>
@@ -8105,7 +8100,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="4" t="s">
         <v>456</v>
       </c>
@@ -8122,7 +8117,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="4" t="s">
         <v>457</v>
       </c>
@@ -8139,7 +8134,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>72</v>
       </c>
@@ -8153,7 +8148,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="4" t="s">
         <v>458</v>
       </c>
@@ -8170,7 +8165,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>75</v>
       </c>
@@ -8184,7 +8179,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="4" t="s">
         <v>721</v>
       </c>
@@ -8201,7 +8196,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>606</v>
       </c>
@@ -8215,7 +8210,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>80</v>
       </c>
@@ -8229,7 +8224,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>82</v>
       </c>
@@ -8243,7 +8238,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="4" t="s">
         <v>459</v>
       </c>
@@ -8260,7 +8255,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="4" t="s">
         <v>460</v>
       </c>
@@ -8277,7 +8272,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>83</v>
       </c>
@@ -8291,7 +8286,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>84</v>
       </c>
@@ -8305,7 +8300,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="4" t="s">
         <v>461</v>
       </c>
@@ -8322,7 +8317,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>85</v>
       </c>
@@ -8336,7 +8331,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="4" t="s">
         <v>462</v>
       </c>
@@ -8353,7 +8348,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="4" t="s">
         <v>463</v>
       </c>
@@ -8370,7 +8365,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>607</v>
       </c>
@@ -8384,7 +8379,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>608</v>
       </c>
@@ -8398,7 +8393,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>88</v>
       </c>
@@ -8412,7 +8407,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="4" t="s">
         <v>464</v>
       </c>
@@ -8429,7 +8424,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>96</v>
       </c>
@@ -8443,7 +8438,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>100</v>
       </c>
@@ -8457,7 +8452,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="4" t="s">
         <v>465</v>
       </c>
@@ -8474,7 +8469,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>609</v>
       </c>
@@ -8488,7 +8483,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>610</v>
       </c>
@@ -8502,7 +8497,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>103</v>
       </c>
@@ -8516,7 +8511,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="4" t="s">
         <v>466</v>
       </c>
@@ -8533,7 +8528,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>104</v>
       </c>
@@ -8547,7 +8542,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="4" t="s">
         <v>467</v>
       </c>
@@ -8564,7 +8559,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>111</v>
       </c>
@@ -8578,7 +8573,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="4" t="s">
         <v>468</v>
       </c>
@@ -8595,7 +8590,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="4" t="s">
         <v>469</v>
       </c>
@@ -8612,7 +8607,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="8" t="s">
         <v>734</v>
       </c>
@@ -8627,7 +8622,7 @@
       </c>
       <c r="E398" s="9"/>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>115</v>
       </c>
@@ -8641,7 +8636,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>611</v>
       </c>
@@ -8655,7 +8650,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>612</v>
       </c>
@@ -8669,7 +8664,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>117</v>
       </c>
@@ -8683,7 +8678,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>118</v>
       </c>
@@ -8697,7 +8692,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>120</v>
       </c>
@@ -8711,7 +8706,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>122</v>
       </c>
@@ -8725,7 +8720,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>613</v>
       </c>
@@ -8739,7 +8734,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>614</v>
       </c>
@@ -8753,7 +8748,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>130</v>
       </c>
@@ -8767,7 +8762,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="4" t="s">
         <v>722</v>
       </c>
@@ -8784,7 +8779,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>132</v>
       </c>
@@ -8798,7 +8793,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="4" t="s">
         <v>470</v>
       </c>
@@ -8815,7 +8810,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>615</v>
       </c>
@@ -8829,7 +8824,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>139</v>
       </c>
@@ -8843,7 +8838,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>142</v>
       </c>
@@ -8857,7 +8852,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="4" t="s">
         <v>471</v>
       </c>
@@ -8874,7 +8869,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="4" t="s">
         <v>472</v>
       </c>
@@ -8891,7 +8886,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>143</v>
       </c>
@@ -8905,7 +8900,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="4" t="s">
         <v>473</v>
       </c>
@@ -8922,7 +8917,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>616</v>
       </c>
@@ -8936,7 +8931,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>145</v>
       </c>
@@ -8950,7 +8945,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="4" t="s">
         <v>474</v>
       </c>
@@ -8967,7 +8962,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>147</v>
       </c>
@@ -8981,7 +8976,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="4" t="s">
         <v>475</v>
       </c>
@@ -8998,7 +8993,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>617</v>
       </c>
@@ -9012,7 +9007,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>618</v>
       </c>
@@ -9026,7 +9021,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>619</v>
       </c>
@@ -9040,7 +9035,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>620</v>
       </c>
@@ -9054,7 +9049,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>621</v>
       </c>
@@ -9068,7 +9063,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>153</v>
       </c>
@@ -9082,7 +9077,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="4" t="s">
         <v>476</v>
       </c>
@@ -9099,7 +9094,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="4" t="s">
         <v>477</v>
       </c>
@@ -9116,7 +9111,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>622</v>
       </c>
@@ -9130,7 +9125,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>623</v>
       </c>
@@ -9144,7 +9139,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>624</v>
       </c>
@@ -9158,7 +9153,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>159</v>
       </c>
@@ -9172,7 +9167,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>161</v>
       </c>
@@ -9186,7 +9181,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>625</v>
       </c>
@@ -9200,7 +9195,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>162</v>
       </c>
@@ -9214,7 +9209,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>163</v>
       </c>
@@ -9228,7 +9223,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>626</v>
       </c>
@@ -9242,7 +9237,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>164</v>
       </c>
@@ -9256,7 +9251,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="4" t="s">
         <v>723</v>
       </c>
@@ -9273,7 +9268,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>167</v>
       </c>
@@ -9287,7 +9282,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>170</v>
       </c>
@@ -9301,7 +9296,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>732</v>
       </c>
@@ -9318,7 +9313,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>175</v>
       </c>
@@ -9332,7 +9327,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>179</v>
       </c>
@@ -9346,7 +9341,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="4" t="s">
         <v>478</v>
       </c>
@@ -9363,7 +9358,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="4" t="s">
         <v>479</v>
       </c>
@@ -9380,7 +9375,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>184</v>
       </c>
@@ -9394,7 +9389,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="4" t="s">
         <v>480</v>
       </c>
@@ -9411,7 +9406,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>627</v>
       </c>
@@ -9425,7 +9420,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>188</v>
       </c>
@@ -9439,7 +9434,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>733</v>
       </c>
@@ -9453,7 +9448,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>628</v>
       </c>
@@ -9467,7 +9462,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>191</v>
       </c>
@@ -9481,7 +9476,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="4" t="s">
         <v>481</v>
       </c>
@@ -9498,7 +9493,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>629</v>
       </c>
@@ -9512,7 +9507,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>194</v>
       </c>
@@ -9526,7 +9521,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="4" t="s">
         <v>482</v>
       </c>
@@ -9543,7 +9538,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>195</v>
       </c>
@@ -9557,7 +9552,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="4" t="s">
         <v>483</v>
       </c>
@@ -9574,7 +9569,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>200</v>
       </c>
@@ -9588,7 +9583,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="4" t="s">
         <v>484</v>
       </c>
@@ -9605,7 +9600,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>201</v>
       </c>
@@ -9619,7 +9614,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="4" t="s">
         <v>485</v>
       </c>
@@ -9636,7 +9631,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
         <v>630</v>
       </c>
@@ -9650,7 +9645,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>205</v>
       </c>
@@ -9664,7 +9659,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>486</v>
       </c>
@@ -9678,7 +9673,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>206</v>
       </c>
@@ -9692,7 +9687,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>210</v>
       </c>
@@ -9706,7 +9701,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>211</v>
       </c>
@@ -9720,7 +9715,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="4" t="s">
         <v>487</v>
       </c>
@@ -9737,7 +9732,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>212</v>
       </c>
@@ -9751,7 +9746,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="4" t="s">
         <v>488</v>
       </c>
@@ -9768,7 +9763,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>215</v>
       </c>
@@ -9782,7 +9777,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="4" t="s">
         <v>489</v>
       </c>
@@ -9799,7 +9794,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>216</v>
       </c>
@@ -9813,7 +9808,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="4" t="s">
         <v>490</v>
       </c>
@@ -9830,7 +9825,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>222</v>
       </c>
@@ -9844,7 +9839,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="4" t="s">
         <v>491</v>
       </c>
@@ -9861,7 +9856,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="4" t="s">
         <v>492</v>
       </c>
@@ -9878,7 +9873,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>229</v>
       </c>
@@ -9892,7 +9887,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="4" t="s">
         <v>493</v>
       </c>
@@ -9909,7 +9904,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="4" t="s">
         <v>494</v>
       </c>
@@ -9926,7 +9921,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
         <v>631</v>
       </c>
@@ -9940,7 +9935,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
         <v>632</v>
       </c>
@@ -9954,7 +9949,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>240</v>
       </c>
@@ -9968,7 +9963,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>241</v>
       </c>
@@ -9982,7 +9977,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>242</v>
       </c>
@@ -9996,7 +9991,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="4" t="s">
         <v>724</v>
       </c>
@@ -10013,7 +10008,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>243</v>
       </c>
@@ -10027,7 +10022,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="4" t="s">
         <v>495</v>
       </c>
@@ -10044,7 +10039,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>244</v>
       </c>
@@ -10058,7 +10053,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="4" t="s">
         <v>496</v>
       </c>
@@ -10075,7 +10070,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="4" t="s">
         <v>497</v>
       </c>
@@ -10092,7 +10087,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
         <v>633</v>
       </c>
@@ -10106,7 +10101,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
         <v>634</v>
       </c>
@@ -10120,7 +10115,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>245</v>
       </c>
@@ -10134,7 +10129,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>498</v>
       </c>
@@ -10148,7 +10143,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="501" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>499</v>
       </c>
@@ -10162,7 +10157,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>500</v>
       </c>
@@ -10176,7 +10171,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>501</v>
       </c>
@@ -10190,7 +10185,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>502</v>
       </c>
@@ -10204,7 +10199,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>503</v>
       </c>
@@ -10218,7 +10213,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>504</v>
       </c>
@@ -10232,7 +10227,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>505</v>
       </c>
@@ -10246,7 +10241,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>506</v>
       </c>
@@ -10260,7 +10255,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="509" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>507</v>
       </c>
@@ -10274,7 +10269,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>508</v>
       </c>
@@ -10288,7 +10283,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>509</v>
       </c>
@@ -10302,7 +10297,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="512" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>510</v>
       </c>
@@ -10316,7 +10311,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>511</v>
       </c>
@@ -10330,7 +10325,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>512</v>
       </c>
@@ -10344,7 +10339,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>513</v>
       </c>
@@ -10358,7 +10353,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>514</v>
       </c>
@@ -10372,7 +10367,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>515</v>
       </c>
@@ -10386,7 +10381,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>516</v>
       </c>
@@ -10400,7 +10395,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>517</v>
       </c>
@@ -10414,7 +10409,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>246</v>
       </c>
@@ -10428,7 +10423,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>248</v>
       </c>
@@ -10442,7 +10437,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
         <v>635</v>
       </c>
@@ -10456,7 +10451,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
         <v>636</v>
       </c>
@@ -10470,7 +10465,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>250</v>
       </c>
@@ -10484,7 +10479,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="4" t="s">
         <v>518</v>
       </c>
@@ -10501,7 +10496,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
         <v>637</v>
       </c>
@@ -10515,7 +10510,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>253</v>
       </c>
@@ -10529,7 +10524,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="4" t="s">
         <v>519</v>
       </c>
@@ -10546,7 +10541,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="4" t="s">
         <v>520</v>
       </c>
@@ -10563,7 +10558,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
         <v>638</v>
       </c>
@@ -10577,7 +10572,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>260</v>
       </c>
@@ -10591,7 +10586,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>261</v>
       </c>
@@ -10605,7 +10600,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="4" t="s">
         <v>521</v>
       </c>
@@ -10622,7 +10617,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>265</v>
       </c>
@@ -10636,7 +10631,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
         <v>639</v>
       </c>
@@ -10650,8 +10645,8 @@
         <v>639</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A536" s="11" t="s">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
         <v>0</v>
       </c>
       <c r="B536" t="s">
@@ -10664,8 +10659,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A537" s="12" t="s">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A537" s="10" t="s">
         <v>295</v>
       </c>
       <c r="B537" t="s">
@@ -10681,8 +10676,8 @@
         <v>714</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A538" s="11" t="s">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
         <v>523</v>
       </c>
       <c r="B538" t="s">
@@ -10695,8 +10690,8 @@
         <v>523</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A539" s="11" t="s">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
         <v>524</v>
       </c>
       <c r="B539" t="s">
@@ -10709,8 +10704,8 @@
         <v>524</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A540" s="11" t="s">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
         <v>2</v>
       </c>
       <c r="B540" t="s">
@@ -10723,8 +10718,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A541" s="11" t="s">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
         <v>3</v>
       </c>
       <c r="B541" t="s">
@@ -10737,8 +10732,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A542" s="11" t="s">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
         <v>4</v>
       </c>
       <c r="B542" t="s">
@@ -10751,8 +10746,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A543" s="11" t="s">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
         <v>5</v>
       </c>
       <c r="B543" t="s">
@@ -10765,8 +10760,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A544" s="11" t="s">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
         <v>6</v>
       </c>
       <c r="B544" t="s">
@@ -10779,8 +10774,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A545" s="12" t="s">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A545" s="10" t="s">
         <v>296</v>
       </c>
       <c r="B545" t="s">
@@ -10796,8 +10791,8 @@
         <v>714</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A546" s="11" t="s">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
         <v>525</v>
       </c>
       <c r="B546" t="s">
@@ -10810,8 +10805,8 @@
         <v>525</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A547" s="13" t="s">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A547" s="9" t="s">
         <v>735</v>
       </c>
       <c r="B547" s="9" t="s">
@@ -10825,8 +10820,8 @@
       </c>
       <c r="E547" s="9"/>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A548" s="11" t="s">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
         <v>277</v>
       </c>
       <c r="B548" t="s">
@@ -10839,8 +10834,8 @@
         <v>277</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A549" s="11" t="s">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
         <v>526</v>
       </c>
       <c r="B549" t="s">
@@ -10853,8 +10848,8 @@
         <v>526</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A550" s="11" t="s">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
         <v>278</v>
       </c>
       <c r="B550" t="s">
@@ -10867,8 +10862,8 @@
         <v>278</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A551" s="11" t="s">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
         <v>279</v>
       </c>
       <c r="B551" t="s">
@@ -10881,8 +10876,8 @@
         <v>279</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A552" s="11" t="s">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
         <v>294</v>
       </c>
       <c r="B552" t="s">
@@ -10895,8 +10890,8 @@
         <v>294</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A553" s="11" t="s">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
         <v>527</v>
       </c>
       <c r="B553" t="s">
@@ -10909,8 +10904,8 @@
         <v>527</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A554" s="11" t="s">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
         <v>280</v>
       </c>
       <c r="B554" t="s">
@@ -10923,8 +10918,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A555" s="11" t="s">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
         <v>528</v>
       </c>
       <c r="B555" t="s">
@@ -10937,8 +10932,8 @@
         <v>528</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A556" s="11" t="s">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
         <v>281</v>
       </c>
       <c r="B556" t="s">
@@ -10951,8 +10946,8 @@
         <v>281</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A557" s="11" t="s">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
         <v>282</v>
       </c>
       <c r="B557" t="s">
@@ -10965,8 +10960,8 @@
         <v>282</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A558" s="11" t="s">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
         <v>529</v>
       </c>
       <c r="B558" t="s">
@@ -10979,8 +10974,8 @@
         <v>529</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A559" s="11" t="s">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
         <v>530</v>
       </c>
       <c r="B559" t="s">
@@ -10993,8 +10988,8 @@
         <v>530</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A560" s="11" t="s">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
         <v>18</v>
       </c>
       <c r="B560" t="s">
@@ -11007,8 +11002,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A561" s="11" t="s">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
         <v>531</v>
       </c>
       <c r="B561" t="s">
@@ -11021,8 +11016,8 @@
         <v>531</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A562" s="11" t="s">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
         <v>20</v>
       </c>
       <c r="B562" t="s">
@@ -11035,8 +11030,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A563" s="11" t="s">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
         <v>26</v>
       </c>
       <c r="B563" t="s">
@@ -11049,8 +11044,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A564" s="12" t="s">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A564" s="10" t="s">
         <v>297</v>
       </c>
       <c r="B564" t="s">
@@ -11066,8 +11061,8 @@
         <v>714</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A565" s="11" t="s">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
         <v>32</v>
       </c>
       <c r="B565" t="s">
@@ -11080,8 +11075,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A566" s="11" t="s">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
         <v>532</v>
       </c>
       <c r="B566" t="s">
@@ -11094,8 +11089,8 @@
         <v>532</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A567" s="11" t="s">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
         <v>533</v>
       </c>
       <c r="B567" t="s">
@@ -11108,8 +11103,8 @@
         <v>533</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A568" s="11" t="s">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
         <v>35</v>
       </c>
       <c r="B568" t="s">
@@ -11122,8 +11117,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A569" s="12" t="s">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A569" s="10" t="s">
         <v>298</v>
       </c>
       <c r="B569" t="s">
@@ -11139,8 +11134,8 @@
         <v>715</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A570" s="12" t="s">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A570" s="10" t="s">
         <v>299</v>
       </c>
       <c r="B570" t="s">
@@ -11156,8 +11151,8 @@
         <v>714</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A571" s="11" t="s">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
         <v>534</v>
       </c>
       <c r="B571" t="s">
@@ -11170,8 +11165,8 @@
         <v>534</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A572" s="11" t="s">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
         <v>535</v>
       </c>
       <c r="B572" t="s">
@@ -11184,8 +11179,8 @@
         <v>535</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A573" s="11" t="s">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
         <v>718</v>
       </c>
       <c r="B573" t="s">
@@ -11198,8 +11193,8 @@
         <v>718</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A574" s="11" t="s">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
         <v>536</v>
       </c>
       <c r="B574" t="s">
@@ -11212,8 +11207,8 @@
         <v>536</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A575" s="11" t="s">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
         <v>537</v>
       </c>
       <c r="B575" t="s">
@@ -11226,8 +11221,8 @@
         <v>537</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A576" s="11" t="s">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
         <v>39</v>
       </c>
       <c r="B576" t="s">
@@ -11240,8 +11235,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A577" s="11" t="s">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
         <v>538</v>
       </c>
       <c r="B577" t="s">
@@ -11254,8 +11249,8 @@
         <v>538</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A578" s="11" t="s">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
         <v>42</v>
       </c>
       <c r="B578" t="s">
@@ -11268,8 +11263,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A579" s="11" t="s">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
         <v>300</v>
       </c>
       <c r="B579" t="s">
@@ -11282,8 +11277,8 @@
         <v>300</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A580" s="11" t="s">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
         <v>539</v>
       </c>
       <c r="B580" t="s">
@@ -11296,8 +11291,8 @@
         <v>539</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A581" s="11" t="s">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
         <v>46</v>
       </c>
       <c r="B581" t="s">
@@ -11310,8 +11305,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A582" s="12" t="s">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A582" s="10" t="s">
         <v>301</v>
       </c>
       <c r="B582" t="s">
@@ -11327,8 +11322,8 @@
         <v>714</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A583" s="11" t="s">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
         <v>540</v>
       </c>
       <c r="B583" t="s">
@@ -11341,8 +11336,8 @@
         <v>540</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A584" s="11" t="s">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
         <v>541</v>
       </c>
       <c r="B584" t="s">
@@ -11355,8 +11350,8 @@
         <v>541</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A585" s="11" t="s">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
         <v>50</v>
       </c>
       <c r="B585" t="s">
@@ -11369,8 +11364,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A586" s="11" t="s">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
         <v>542</v>
       </c>
       <c r="B586" t="s">
@@ -11383,8 +11378,8 @@
         <v>542</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A587" s="13" t="s">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A587" s="9" t="s">
         <v>736</v>
       </c>
       <c r="B587" s="9" t="s">
@@ -11398,8 +11393,8 @@
       </c>
       <c r="E587" s="9"/>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A588" s="11" t="s">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
         <v>543</v>
       </c>
       <c r="B588" t="s">
@@ -11412,8 +11407,8 @@
         <v>543</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A589" s="11" t="s">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
         <v>57</v>
       </c>
       <c r="B589" t="s">
@@ -11426,8 +11421,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A590" s="11" t="s">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
         <v>58</v>
       </c>
       <c r="B590" t="s">
@@ -11440,8 +11435,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A591" s="11" t="s">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
         <v>62</v>
       </c>
       <c r="B591" t="s">
@@ -11454,8 +11449,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A592" s="11" t="s">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
         <v>65</v>
       </c>
       <c r="B592" t="s">
@@ -11468,8 +11463,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A593" s="11" t="s">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
         <v>544</v>
       </c>
       <c r="B593" t="s">
@@ -11482,8 +11477,8 @@
         <v>544</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A594" s="11" t="s">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
         <v>69</v>
       </c>
       <c r="B594" t="s">
@@ -11496,8 +11491,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A595" s="12" t="s">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A595" s="10" t="s">
         <v>302</v>
       </c>
       <c r="B595" t="s">
@@ -11513,8 +11508,8 @@
         <v>714</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A596" s="11" t="s">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
         <v>71</v>
       </c>
       <c r="B596" t="s">
@@ -11527,8 +11522,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A597" s="11" t="s">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
         <v>545</v>
       </c>
       <c r="B597" t="s">
@@ -11541,8 +11536,8 @@
         <v>545</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A598" s="11" t="s">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
         <v>73</v>
       </c>
       <c r="B598" t="s">
@@ -11555,8 +11550,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A599" s="12" t="s">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A599" s="10" t="s">
         <v>303</v>
       </c>
       <c r="B599" t="s">
@@ -11572,8 +11567,8 @@
         <v>714</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A600" s="11" t="s">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
         <v>74</v>
       </c>
       <c r="B600" t="s">
@@ -11586,8 +11581,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A601" s="12" t="s">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A601" s="10" t="s">
         <v>304</v>
       </c>
       <c r="B601" t="s">
@@ -11603,8 +11598,8 @@
         <v>714</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A602" s="12" t="s">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A602" s="10" t="s">
         <v>305</v>
       </c>
       <c r="B602" t="s">
@@ -11620,8 +11615,8 @@
         <v>715</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A603" s="11" t="s">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
         <v>546</v>
       </c>
       <c r="B603" t="s">
@@ -11634,8 +11629,8 @@
         <v>546</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A604" s="11" t="s">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
         <v>547</v>
       </c>
       <c r="B604" t="s">
@@ -11648,8 +11643,8 @@
         <v>547</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A605" s="11" t="s">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
         <v>548</v>
       </c>
       <c r="B605" t="s">
@@ -11662,8 +11657,8 @@
         <v>548</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A606" s="11" t="s">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
         <v>77</v>
       </c>
       <c r="B606" t="s">
@@ -11676,8 +11671,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A607" s="11" t="s">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
         <v>549</v>
       </c>
       <c r="B607" t="s">
@@ -11690,8 +11685,8 @@
         <v>549</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A608" s="13" t="s">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A608" s="9" t="s">
         <v>737</v>
       </c>
       <c r="B608" s="9" t="s">
@@ -11705,8 +11700,8 @@
       </c>
       <c r="E608" s="9"/>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A609" s="13" t="s">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A609" s="9" t="s">
         <v>738</v>
       </c>
       <c r="B609" s="9" t="s">
@@ -11720,8 +11715,8 @@
       </c>
       <c r="E609" s="9"/>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A610" s="11" t="s">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
         <v>86</v>
       </c>
       <c r="B610" t="s">
@@ -11734,8 +11729,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A611" s="12" t="s">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A611" s="10" t="s">
         <v>306</v>
       </c>
       <c r="B611" t="s">
@@ -11751,8 +11746,8 @@
         <v>714</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A612" s="11" t="s">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
         <v>550</v>
       </c>
       <c r="B612" t="s">
@@ -11765,8 +11760,8 @@
         <v>550</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A613" s="11" t="s">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
         <v>551</v>
       </c>
       <c r="B613" t="s">
@@ -11779,8 +11774,8 @@
         <v>551</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A614" s="11" t="s">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
         <v>92</v>
       </c>
       <c r="B614" t="s">
@@ -11793,8 +11788,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A615" s="11" t="s">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
         <v>552</v>
       </c>
       <c r="B615" t="s">
@@ -11807,8 +11802,8 @@
         <v>552</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A616" s="11" t="s">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
         <v>99</v>
       </c>
       <c r="B616" t="s">
@@ -11821,8 +11816,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A617" s="11" t="s">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
         <v>553</v>
       </c>
       <c r="B617" t="s">
@@ -11835,8 +11830,8 @@
         <v>553</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A618" s="11" t="s">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
         <v>307</v>
       </c>
       <c r="B618" t="s">
@@ -11849,8 +11844,8 @@
         <v>307</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A619" s="12" t="s">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A619" s="10" t="s">
         <v>308</v>
       </c>
       <c r="B619" t="s">
@@ -11866,8 +11861,8 @@
         <v>714</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A620" s="11" t="s">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
         <v>112</v>
       </c>
       <c r="B620" t="s">
@@ -11880,8 +11875,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A621" s="11" t="s">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
         <v>554</v>
       </c>
       <c r="B621" t="s">
@@ -11894,8 +11889,8 @@
         <v>554</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A622" s="11" t="s">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
         <v>114</v>
       </c>
       <c r="B622" t="s">
@@ -11908,8 +11903,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A623" s="12" t="s">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A623" s="10" t="s">
         <v>309</v>
       </c>
       <c r="B623" t="s">
@@ -11925,8 +11920,8 @@
         <v>714</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A624" s="11" t="s">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
         <v>116</v>
       </c>
       <c r="B624" t="s">
@@ -11939,8 +11934,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A625" s="12" t="s">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A625" s="10" t="s">
         <v>310</v>
       </c>
       <c r="B625" t="s">
@@ -11956,8 +11951,8 @@
         <v>714</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A626" s="11" t="s">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
         <v>555</v>
       </c>
       <c r="B626" t="s">
@@ -11970,8 +11965,8 @@
         <v>555</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A627" s="11" t="s">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
         <v>119</v>
       </c>
       <c r="B627" t="s">
@@ -11984,8 +11979,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A628" s="11" t="s">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
         <v>121</v>
       </c>
       <c r="B628" t="s">
@@ -11998,8 +11993,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A629" s="11" t="s">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
         <v>123</v>
       </c>
       <c r="B629" t="s">
@@ -12012,8 +12007,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A630" s="11" t="s">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
         <v>126</v>
       </c>
       <c r="B630" t="s">
@@ -12026,8 +12021,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A631" s="12" t="s">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A631" s="10" t="s">
         <v>311</v>
       </c>
       <c r="B631" t="s">
@@ -12043,8 +12038,8 @@
         <v>714</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A632" s="11" t="s">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
         <v>128</v>
       </c>
       <c r="B632" t="s">
@@ -12057,8 +12052,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A633" s="11" t="s">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
         <v>312</v>
       </c>
       <c r="B633" t="s">
@@ -12071,8 +12066,8 @@
         <v>312</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A634" s="11" t="s">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
         <v>134</v>
       </c>
       <c r="B634" t="s">
@@ -12085,8 +12080,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A635" s="11" t="s">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
         <v>556</v>
       </c>
       <c r="B635" t="s">
@@ -12099,8 +12094,8 @@
         <v>556</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A636" s="11" t="s">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
         <v>136</v>
       </c>
       <c r="B636" t="s">
@@ -12113,8 +12108,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A637" s="12" t="s">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A637" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B637" t="s">
@@ -12130,8 +12125,8 @@
         <v>714</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A638" s="11" t="s">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
         <v>137</v>
       </c>
       <c r="B638" t="s">
@@ -12144,8 +12139,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A639" s="11" t="s">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
         <v>557</v>
       </c>
       <c r="B639" t="s">
@@ -12158,8 +12153,8 @@
         <v>557</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A640" s="11" t="s">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
         <v>138</v>
       </c>
       <c r="B640" t="s">
@@ -12172,8 +12167,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A641" s="11" t="s">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
         <v>558</v>
       </c>
       <c r="B641" t="s">
@@ -12186,8 +12181,8 @@
         <v>558</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A642" s="11" t="s">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
         <v>559</v>
       </c>
       <c r="B642" t="s">
@@ -12200,8 +12195,8 @@
         <v>559</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A643" s="11" t="s">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
         <v>560</v>
       </c>
       <c r="B643" t="s">
@@ -12214,8 +12209,8 @@
         <v>560</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A644" s="11" t="s">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
         <v>144</v>
       </c>
       <c r="B644" t="s">
@@ -12228,8 +12223,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A645" s="12" t="s">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A645" s="10" t="s">
         <v>314</v>
       </c>
       <c r="B645" t="s">
@@ -12245,8 +12240,8 @@
         <v>714</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A646" s="11" t="s">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
         <v>561</v>
       </c>
       <c r="B646" t="s">
@@ -12259,8 +12254,8 @@
         <v>561</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A647" s="11" t="s">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
         <v>562</v>
       </c>
       <c r="B647" t="s">
@@ -12273,8 +12268,8 @@
         <v>562</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A648" s="11" t="s">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
         <v>563</v>
       </c>
       <c r="B648" t="s">
@@ -12287,8 +12282,8 @@
         <v>563</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A649" s="11" t="s">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
         <v>564</v>
       </c>
       <c r="B649" t="s">
@@ -12301,8 +12296,8 @@
         <v>564</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A650" s="11" t="s">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
         <v>565</v>
       </c>
       <c r="B650" t="s">
@@ -12315,8 +12310,8 @@
         <v>565</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A651" s="11" t="s">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
         <v>566</v>
       </c>
       <c r="B651" t="s">
@@ -12329,8 +12324,8 @@
         <v>566</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A652" s="11" t="s">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
         <v>567</v>
       </c>
       <c r="B652" t="s">
@@ -12343,8 +12338,8 @@
         <v>567</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A653" s="11" t="s">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
         <v>154</v>
       </c>
       <c r="B653" t="s">
@@ -12357,8 +12352,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A654" s="11" t="s">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
         <v>155</v>
       </c>
       <c r="B654" t="s">
@@ -12371,8 +12366,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A655" s="12" t="s">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A655" s="10" t="s">
         <v>315</v>
       </c>
       <c r="B655" t="s">
@@ -12388,8 +12383,8 @@
         <v>714</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A656" s="13" t="s">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A656" s="9" t="s">
         <v>739</v>
       </c>
       <c r="B656" s="9" t="s">
@@ -12398,13 +12393,13 @@
       <c r="C656" t="s">
         <v>580</v>
       </c>
-      <c r="D656" s="13" t="s">
+      <c r="D656" s="9" t="s">
         <v>739</v>
       </c>
       <c r="E656" s="9"/>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A657" s="11" t="s">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
         <v>568</v>
       </c>
       <c r="B657" t="s">
@@ -12417,8 +12412,8 @@
         <v>568</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A658" s="11" t="s">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
         <v>569</v>
       </c>
       <c r="B658" t="s">
@@ -12431,8 +12426,8 @@
         <v>569</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A659" s="13" t="s">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A659" s="9" t="s">
         <v>740</v>
       </c>
       <c r="B659" s="9" t="s">
@@ -12441,13 +12436,13 @@
       <c r="C659" t="s">
         <v>580</v>
       </c>
-      <c r="D659" s="13" t="s">
+      <c r="D659" s="9" t="s">
         <v>740</v>
       </c>
       <c r="E659" s="9"/>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A660" s="11" t="s">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
         <v>158</v>
       </c>
       <c r="B660" t="s">
@@ -12460,8 +12455,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A661" s="12" t="s">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A661" s="10" t="s">
         <v>316</v>
       </c>
       <c r="B661" t="s">
@@ -12477,8 +12472,8 @@
         <v>715</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A662" s="12" t="s">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A662" s="10" t="s">
         <v>317</v>
       </c>
       <c r="B662" t="s">
@@ -12494,8 +12489,8 @@
         <v>714</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A663" s="11" t="s">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
         <v>160</v>
       </c>
       <c r="B663" t="s">
@@ -12508,8 +12503,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A664" s="11" t="s">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
         <v>168</v>
       </c>
       <c r="B664" t="s">
@@ -12522,8 +12517,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A665" s="11" t="s">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
         <v>169</v>
       </c>
       <c r="B665" t="s">
@@ -12536,8 +12531,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A666" s="11" t="s">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
         <v>570</v>
       </c>
       <c r="B666" t="s">
@@ -12550,8 +12545,8 @@
         <v>570</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A667" s="11" t="s">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
         <v>171</v>
       </c>
       <c r="B667" t="s">
@@ -12564,8 +12559,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A668" s="11" t="s">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
         <v>174</v>
       </c>
       <c r="B668" t="s">
@@ -12578,8 +12573,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A669" s="11" t="s">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
         <v>571</v>
       </c>
       <c r="B669" t="s">
@@ -12592,8 +12587,8 @@
         <v>571</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A670" s="11" t="s">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
         <v>178</v>
       </c>
       <c r="B670" t="s">
@@ -12606,8 +12601,8 @@
         <v>178</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A671" s="12" t="s">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A671" s="10" t="s">
         <v>318</v>
       </c>
       <c r="B671" t="s">
@@ -12623,8 +12618,8 @@
         <v>714</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A672" s="11" t="s">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
         <v>182</v>
       </c>
       <c r="B672" t="s">
@@ -12637,8 +12632,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A673" s="11" t="s">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
         <v>183</v>
       </c>
       <c r="B673" t="s">
@@ -12651,8 +12646,8 @@
         <v>183</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A674" s="11" t="s">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
         <v>185</v>
       </c>
       <c r="B674" t="s">
@@ -12665,8 +12660,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A675" s="11" t="s">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
         <v>186</v>
       </c>
       <c r="B675" t="s">
@@ -12679,8 +12674,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A676" s="11" t="s">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
         <v>572</v>
       </c>
       <c r="B676" t="s">
@@ -12693,8 +12688,8 @@
         <v>572</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A677" s="11" t="s">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
         <v>192</v>
       </c>
       <c r="B677" t="s">
@@ -12707,8 +12702,8 @@
         <v>192</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A678" s="11" t="s">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
         <v>193</v>
       </c>
       <c r="B678" t="s">
@@ -12721,8 +12716,8 @@
         <v>193</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A679" s="11" t="s">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
         <v>196</v>
       </c>
       <c r="B679" t="s">
@@ -12735,8 +12730,8 @@
         <v>196</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A680" s="11" t="s">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
         <v>197</v>
       </c>
       <c r="B680" t="s">
@@ -12749,8 +12744,8 @@
         <v>197</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A681" s="12" t="s">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A681" s="10" t="s">
         <v>319</v>
       </c>
       <c r="B681" t="s">
@@ -12766,8 +12761,8 @@
         <v>714</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A682" s="11" t="s">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
         <v>573</v>
       </c>
       <c r="B682" t="s">
@@ -12780,8 +12775,8 @@
         <v>573</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A683" s="11" t="s">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
         <v>199</v>
       </c>
       <c r="B683" t="s">
@@ -12794,8 +12789,8 @@
         <v>199</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A684" s="11" t="s">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
         <v>204</v>
       </c>
       <c r="B684" t="s">
@@ -12808,8 +12803,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A685" s="11" t="s">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
         <v>320</v>
       </c>
       <c r="B685" t="s">
@@ -12822,8 +12817,8 @@
         <v>320</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A686" s="11" t="s">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
         <v>574</v>
       </c>
       <c r="B686" t="s">
@@ -12836,8 +12831,8 @@
         <v>574</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A687" s="11" t="s">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
         <v>217</v>
       </c>
       <c r="B687" t="s">
@@ -12850,8 +12845,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A688" s="11" t="s">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
         <v>218</v>
       </c>
       <c r="B688" t="s">
@@ -12864,8 +12859,8 @@
         <v>218</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A689" s="11" t="s">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
         <v>575</v>
       </c>
       <c r="B689" t="s">
@@ -12878,8 +12873,8 @@
         <v>575</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A690" s="11" t="s">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
         <v>227</v>
       </c>
       <c r="B690" t="s">
@@ -12892,8 +12887,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A691" s="12" t="s">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A691" s="10" t="s">
         <v>321</v>
       </c>
       <c r="B691" t="s">
@@ -12909,8 +12904,8 @@
         <v>714</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A692" s="12" t="s">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A692" s="10" t="s">
         <v>322</v>
       </c>
       <c r="B692" t="s">
@@ -12926,8 +12921,8 @@
         <v>715</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A693" s="11" t="s">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
         <v>235</v>
       </c>
       <c r="B693" t="s">
@@ -12940,8 +12935,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A694" s="12" t="s">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A694" s="10" t="s">
         <v>323</v>
       </c>
       <c r="B694" t="s">
@@ -12957,8 +12952,8 @@
         <v>714</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A695" s="12" t="s">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A695" s="10" t="s">
         <v>324</v>
       </c>
       <c r="B695" t="s">
@@ -12974,8 +12969,8 @@
         <v>715</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A696" s="11" t="s">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
         <v>236</v>
       </c>
       <c r="B696" t="s">
@@ -12988,8 +12983,8 @@
         <v>236</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A697" s="12" t="s">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A697" s="10" t="s">
         <v>325</v>
       </c>
       <c r="B697" t="s">
@@ -13005,8 +13000,8 @@
         <v>714</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A698" s="11" t="s">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
         <v>237</v>
       </c>
       <c r="B698" t="s">
@@ -13019,8 +13014,8 @@
         <v>237</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A699" s="13" t="s">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A699" s="9" t="s">
         <v>741</v>
       </c>
       <c r="B699" s="9" t="s">
@@ -13029,13 +13024,13 @@
       <c r="C699" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="D699" s="13" t="s">
+      <c r="D699" s="9" t="s">
         <v>741</v>
       </c>
       <c r="E699" s="9"/>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A700" s="11" t="s">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
         <v>238</v>
       </c>
       <c r="B700" t="s">
@@ -13048,8 +13043,8 @@
         <v>238</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A701" s="12" t="s">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A701" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B701" t="s">
@@ -13065,8 +13060,8 @@
         <v>714</v>
       </c>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A702" s="11" t="s">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
         <v>576</v>
       </c>
       <c r="B702" t="s">
@@ -13079,8 +13074,8 @@
         <v>576</v>
       </c>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A703" s="11" t="s">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
         <v>577</v>
       </c>
       <c r="B703" t="s">
@@ -13093,8 +13088,8 @@
         <v>577</v>
       </c>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A704" s="11" t="s">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
         <v>327</v>
       </c>
       <c r="B704" t="s">
@@ -13107,8 +13102,8 @@
         <v>327</v>
       </c>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A705" s="11" t="s">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
         <v>328</v>
       </c>
       <c r="B705" t="s">
@@ -13121,8 +13116,8 @@
         <v>328</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A706" s="11" t="s">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
         <v>329</v>
       </c>
       <c r="B706" t="s">
@@ -13135,8 +13130,8 @@
         <v>329</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A707" s="11" t="s">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
         <v>330</v>
       </c>
       <c r="B707" t="s">
@@ -13149,8 +13144,8 @@
         <v>330</v>
       </c>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A708" s="11" t="s">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
         <v>331</v>
       </c>
       <c r="B708" t="s">
@@ -13163,8 +13158,8 @@
         <v>331</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A709" s="11" t="s">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
         <v>332</v>
       </c>
       <c r="B709" t="s">
@@ -13177,8 +13172,8 @@
         <v>332</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A710" s="11" t="s">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
         <v>333</v>
       </c>
       <c r="B710" t="s">
@@ -13191,8 +13186,8 @@
         <v>333</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A711" s="11" t="s">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
         <v>334</v>
       </c>
       <c r="B711" t="s">
@@ -13205,8 +13200,8 @@
         <v>334</v>
       </c>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A712" s="11" t="s">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
         <v>335</v>
       </c>
       <c r="B712" t="s">
@@ -13219,8 +13214,8 @@
         <v>335</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A713" s="11" t="s">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
         <v>336</v>
       </c>
       <c r="B713" t="s">
@@ -13233,8 +13228,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A714" s="11" t="s">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
         <v>337</v>
       </c>
       <c r="B714" t="s">
@@ -13247,8 +13242,8 @@
         <v>337</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A715" s="11" t="s">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
         <v>338</v>
       </c>
       <c r="B715" t="s">
@@ -13261,8 +13256,8 @@
         <v>338</v>
       </c>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A716" s="11" t="s">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
         <v>339</v>
       </c>
       <c r="B716" t="s">
@@ -13275,8 +13270,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A717" s="11" t="s">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
         <v>340</v>
       </c>
       <c r="B717" t="s">
@@ -13289,8 +13284,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A718" s="11" t="s">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
         <v>247</v>
       </c>
       <c r="B718" t="s">
@@ -13303,8 +13298,8 @@
         <v>247</v>
       </c>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A719" s="13" t="s">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A719" s="9" t="s">
         <v>742</v>
       </c>
       <c r="B719" s="9" t="s">
@@ -13313,13 +13308,13 @@
       <c r="C719" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="D719" s="13" t="s">
+      <c r="D719" s="9" t="s">
         <v>742</v>
       </c>
       <c r="E719" s="9"/>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A720" s="11" t="s">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
         <v>249</v>
       </c>
       <c r="B720" t="s">
@@ -13332,8 +13327,8 @@
         <v>249</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A721" s="11" t="s">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
         <v>251</v>
       </c>
       <c r="B721" t="s">
@@ -13346,8 +13341,8 @@
         <v>251</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A722" s="11" t="s">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
         <v>578</v>
       </c>
       <c r="B722" t="s">
@@ -13360,8 +13355,8 @@
         <v>578</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A723" s="11" t="s">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
         <v>341</v>
       </c>
       <c r="B723" t="s">
@@ -13374,8 +13369,8 @@
         <v>341</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A724" s="12" t="s">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A724" s="10" t="s">
         <v>342</v>
       </c>
       <c r="B724" t="s">
@@ -13391,8 +13386,8 @@
         <v>714</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A725" s="11" t="s">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
         <v>256</v>
       </c>
       <c r="B725" t="s">
@@ -13405,8 +13400,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A726" s="11" t="s">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
         <v>257</v>
       </c>
       <c r="B726" t="s">
@@ -13419,8 +13414,8 @@
         <v>257</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A727" s="11" t="s">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
         <v>258</v>
       </c>
       <c r="B727" t="s">
@@ -13433,7 +13428,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="728" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" s="2" t="s">
         <v>64</v>
       </c>
@@ -13447,7 +13442,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="729" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" s="2" t="s">
         <v>165</v>
       </c>
@@ -13461,7 +13456,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="730" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" s="2" t="s">
         <v>522</v>
       </c>
